--- a/data/trans_bre/CONS_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,03%</t>
+          <t>-9,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,73</t>
+          <t>-0,51; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,35</t>
+          <t>-6,48; 3,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,95</t>
+          <t>-2,2; 2,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,02; 68,67</t>
+          <t>-18,34; 193,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 35,54</t>
+          <t>-42,75; 44,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 84,68</t>
+          <t>-46,48; 92,47</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>-14,03%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,76</t>
+          <t>-0,23; 1,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,93</t>
+          <t>-1,73; 4,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,98</t>
+          <t>-1,6; 0,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,28; 35,31</t>
+          <t>-11,72; 99,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 56,47</t>
+          <t>-24,3; 117,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 55,94</t>
+          <t>-46,56; 32,65</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>-22,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,5</t>
+          <t>-1,05; 0,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,89</t>
+          <t>-5,97; 1,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,45</t>
+          <t>-1,69; 1,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-51,54; 65,55</t>
+          <t>-57,11; 142,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 30,56</t>
+          <t>-49,36; 24,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 201,38</t>
+          <t>-43,04; 84,39</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>-4,76%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,63</t>
+          <t>-0,01; 1,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,86</t>
+          <t>-2,13; 3,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,94</t>
+          <t>-1,13; 0,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 24,31</t>
+          <t>-1,61; 89,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 29,49</t>
+          <t>-25,64; 58,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 51,82</t>
+          <t>-32,35; 32,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>62,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,67</t>
+          <t>-0,13; 5,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 3,3</t>
+          <t>-6,49; 3,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 193,26</t>
+          <t>-3,93; 232,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 44,9</t>
+          <t>-43,11; 41,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,56</t>
+          <t>-0,21; 1,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,75</t>
+          <t>-1,84; 4,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 99,22</t>
+          <t>-8,83; 98,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 117,76</t>
+          <t>-24,98; 114,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>59,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,89</t>
+          <t>-0,45; 1,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,47</t>
+          <t>-6,49; 1,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,11; 142,23</t>
+          <t>-30,3; 257,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 24,58</t>
+          <t>-52,8; 21,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,42</t>
+          <t>0,25; 1,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,13</t>
+          <t>-1,81; 3,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 89,7</t>
+          <t>8,81; 94,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 58,32</t>
+          <t>-22,03; 60,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,44</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>62,86%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,38%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,23; 4,16</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 2,28</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,13; 5,5</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,49; 3,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 2,28</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-32,45; 62,51</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-46,48; 92,47</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-3,93; 232,52</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-43,11; 41,52</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-46,48; 92,47</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-14,03%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>33,54%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>25,39%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-14,03%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,87; 3,71</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 0,69</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-0,21; 1,66</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 4,58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 0,69</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-11,39; 64,38</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-46,56; 32,65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-8,83; 98,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-24,98; 114,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-46,56; 32,65</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,67</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-19,87%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>59,27%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-22,46%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,14; 1,66</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 1,98</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,45; 1,82</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,49; 1,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 1,98</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-48,62; 29,65</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-43,04; 84,39</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-30,3; 257,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-52,8; 21,67</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-43,04; 84,39</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-4,76%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>47,85%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,76%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,11; 2,25</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 0,78</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,25; 1,66</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 3,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 0,78</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-12,51; 33,05</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-32,35; 32,44</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>8,81; 94,76</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-22,03; 60,09</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-32,35; 32,44</t>
         </is>
       </c>
     </row>
